--- a/Basics Gretl/GeoDemographical Model/Churn Modelling - with Odds Ratios.xlsx
+++ b/Basics Gretl/GeoDemographical Model/Churn Modelling - with Odds Ratios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desarrollador\Workspace\Data Mining with Tableau\Basics Gretl\GeoDemographical Model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desarrollador\Workspace\GitHub_hashbanger\Analysis_with_Data_Tools\Basics Gretl\GeoDemographical Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F85FF4B9-433A-4497-886F-EB308B4F4AA2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399CB074-4BEA-41B8-88E3-1978B069B3EE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Churn Modelling - with Odds Rat" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>The Final Model With Odds Ratios</t>
   </si>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -563,7 +563,6 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -571,6 +570,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -620,6 +622,9 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="15" formatCode="0.00E+00"/>
       <fill>
         <patternFill patternType="solid">
@@ -627,9 +632,6 @@
           <bgColor theme="0" tint="-0.14999847407452621"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -649,13 +651,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="H6:K16" totalsRowShown="0">
-  <autoFilter ref="H6:K16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table4" displayName="Table4" ref="H6:K16" totalsRowShown="0">
+  <autoFilter ref="H6:K16" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Features"/>
-    <tableColumn id="2" name="coefficient" dataDxfId="2"/>
-    <tableColumn id="3" name="p-value" dataDxfId="0"/>
-    <tableColumn id="4" name="Odds-ratio" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Features"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="coefficient" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="p-value" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Odds-ratio" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -957,38 +959,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="H5:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E4" zoomScale="146" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:K16"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="10.42578125" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" customWidth="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" customWidth="1"/>
     <col min="11" max="11" width="16" customWidth="1"/>
     <col min="12" max="12" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="8:11" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
     </row>
     <row r="6" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H6" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -996,25 +1001,25 @@
       <c r="H7" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="1">
         <v>-3.1628639650000001</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="3">
         <v>4.7499999999999996E-37</v>
       </c>
-      <c r="K7" s="2"/>
+      <c r="K7" s="1"/>
     </row>
     <row r="8" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H8" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="1">
         <v>-6.7670700000000002E-4</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="2">
         <v>1.5778332999999999E-2</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="1">
         <v>0.99929999999999997</v>
       </c>
     </row>
@@ -1022,13 +1027,13 @@
       <c r="H9" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="1">
         <v>7.2637953000000005E-2</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="3">
         <v>4.07E-175</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="1">
         <v>1.0752999999999999</v>
       </c>
     </row>
@@ -1036,13 +1041,13 @@
       <c r="H10" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="1">
         <v>-1.5849159000000002E-2</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="2">
         <v>8.9950960999999996E-2</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="1">
         <v>0.98429999999999995</v>
       </c>
     </row>
@@ -1050,13 +1055,13 @@
       <c r="H11" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="1">
         <v>-9.5246476999999996E-2</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="2">
         <v>4.5143726000000002E-2</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="1">
         <v>0.90910000000000002</v>
       </c>
     </row>
@@ -1064,13 +1069,13 @@
       <c r="H12" t="s">
         <v>9</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="1">
         <v>-1.076035936</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="3">
         <v>9.46E-78</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="1">
         <v>0.34089999999999998</v>
       </c>
     </row>
@@ -1078,13 +1083,13 @@
       <c r="H13" t="s">
         <v>10</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="1">
         <v>0.52686403900000001</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="3">
         <v>3.8800000000000001E-22</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13" s="1">
         <v>1.6936</v>
       </c>
     </row>
@@ -1092,13 +1097,13 @@
       <c r="H14" t="s">
         <v>11</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="1">
         <v>-0.75974087499999998</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="3">
         <v>5.2999999999999999E-28</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="1">
         <v>0.46779999999999999</v>
       </c>
     </row>
@@ -1106,13 +1111,13 @@
       <c r="H15" t="s">
         <v>12</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="1">
         <v>-0.72340799200000006</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="3">
         <v>1.8300000000000001E-19</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15" s="1">
         <v>0.48509999999999998</v>
       </c>
     </row>
@@ -1120,17 +1125,20 @@
       <c r="H16" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="1">
         <v>6.9027860999999996E-2</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="3">
         <v>7.6199999999999997E-7</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16" s="1">
         <v>1.0714999999999999</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H5:K5"/>
+  </mergeCells>
   <conditionalFormatting sqref="K6:K16">
     <cfRule type="colorScale" priority="1">
       <colorScale>
